--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-body-weight.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-body-weight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,6 +325,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Observation.meta.id</t>
   </si>
   <si>
@@ -606,16 +613,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -637,10 +638,6 @@
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.extension:MesReasonForMeasurement</t>
   </si>
   <si>
@@ -668,7 +665,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -719,7 +716,14 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -748,7 +752,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -776,6 +780,9 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -825,6 +832,9 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -952,6 +962,9 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1208,7 +1221,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1266,14 +1279,14 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-1
-</t>
+    <t>ele-1
+vs-1</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1301,7 +1314,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1351,7 +1364,7 @@
     <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
@@ -1364,8 +1377,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>obs-7
-vs-2</t>
+    <t>ele-1
+obs-7vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1504,6 +1517,9 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
@@ -1513,8 +1529,8 @@
     <t>Quantity.system</t>
   </si>
   <si>
-    <t xml:space="preserve">qty-3
-</t>
+    <t>ele-1
+qty-3</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1572,8 +1588,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-vs-2</t>
+    <t>ele-1
+obs-6vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1631,6 +1647,9 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
     <t>http://www.interopsante.org/fhir/structuredefinition/observation/fr-obervation-interpretation</t>
   </si>
   <si>
@@ -1681,7 +1700,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1849,8 +1868,15 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-3
-</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-3</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -1907,7 +1933,10 @@
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
-    <t>Non utilisé</t>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
   </si>
   <si>
     <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
@@ -1935,7 +1964,17 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
     <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -1960,10 +1999,13 @@
 </t>
   </si>
   <si>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1979,10 +2021,13 @@
 </t>
   </si>
   <si>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1994,7 +2039,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2051,7 +2096,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2060,8 +2105,8 @@
     <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-3
-</t>
+    <t>ele-1
+vs-3</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2080,14 +2125,11 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>obs-6
-vs-3</t>
+    <t>ele-1
+obs-6vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -2923,7 +2965,7 @@
         <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2938,7 +2980,7 @@
         <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>79</v>
@@ -2949,10 +2991,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2975,13 +3017,13 @@
         <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3032,7 +3074,7 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -3056,7 +3098,7 @@
         <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>79</v>
@@ -3067,14 +3109,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3093,16 +3135,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3140,19 +3182,19 @@
         <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -3164,7 +3206,7 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -3176,7 +3218,7 @@
         <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>79</v>
@@ -3187,10 +3229,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3216,13 +3258,13 @@
         <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3272,7 +3314,7 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -3284,7 +3326,7 @@
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -3307,10 +3349,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3333,16 +3375,16 @@
         <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3392,7 +3434,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -3404,7 +3446,7 @@
         <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>79</v>
@@ -3427,10 +3469,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3453,16 +3495,16 @@
         <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3512,7 +3554,7 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -3524,7 +3566,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3547,10 +3589,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3573,16 +3615,16 @@
         <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3620,17 +3662,17 @@
         <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3642,7 +3684,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3665,10 +3707,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>7</v>
@@ -3693,16 +3735,16 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3752,7 +3794,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3764,7 +3806,7 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3787,10 +3829,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3813,16 +3855,16 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3848,13 +3890,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3872,7 +3914,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3884,7 +3926,7 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3907,10 +3949,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3933,16 +3975,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3968,13 +4010,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3992,7 +4034,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -4004,7 +4046,7 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -4027,10 +4069,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4053,16 +4095,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4112,7 +4154,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -4121,10 +4163,10 @@
         <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -4136,7 +4178,7 @@
         <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -4147,10 +4189,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4173,16 +4215,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4208,13 +4250,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -4232,7 +4274,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -4241,10 +4283,10 @@
         <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4256,7 +4298,7 @@
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -4267,14 +4309,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4293,16 +4335,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4352,7 +4394,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -4361,10 +4403,10 @@
         <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -4376,7 +4418,7 @@
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4387,14 +4429,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4413,16 +4455,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4472,7 +4514,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4496,7 +4538,7 @@
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4507,14 +4549,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4533,15 +4575,17 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4578,14 +4622,16 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>193</v>
@@ -4597,10 +4643,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4612,7 +4658,7 @@
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4626,13 +4672,13 @@
         <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4659,7 +4705,9 @@
       <c r="M19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4717,10 +4765,10 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4732,7 +4780,7 @@
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4743,13 +4791,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4771,13 +4819,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4837,10 +4885,10 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4863,14 +4911,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4889,19 +4937,19 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4938,19 +4986,19 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4959,10 +5007,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4974,7 +5022,7 @@
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4985,10 +5033,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5011,17 +5059,17 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -5070,7 +5118,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -5079,25 +5127,25 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -5105,14 +5153,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5131,15 +5179,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>224</v>
       </c>
@@ -5190,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -5199,22 +5249,22 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -5225,14 +5275,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5251,16 +5301,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5310,7 +5360,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5319,22 +5369,22 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5345,10 +5395,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5371,19 +5421,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5408,11 +5458,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -5430,7 +5482,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -5439,25 +5491,25 @@
         <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>79</v>
@@ -5465,10 +5517,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5491,19 +5543,19 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5528,29 +5580,29 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5559,10 +5611,10 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5571,13 +5623,13 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -5585,13 +5637,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>79</v>
@@ -5613,19 +5665,19 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5650,13 +5702,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5674,7 +5726,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5683,10 +5735,10 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5695,13 +5747,13 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -5709,10 +5761,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5735,13 +5787,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5792,7 +5844,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5816,7 +5868,7 @@
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5827,14 +5879,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5853,16 +5905,16 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5900,19 +5952,19 @@
         <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5921,10 +5973,10 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5936,7 +5988,7 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5947,10 +5999,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5973,19 +6025,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -6034,7 +6086,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -6043,10 +6095,10 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -6055,10 +6107,10 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -6069,10 +6121,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6095,13 +6147,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6152,7 +6204,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6176,7 +6228,7 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6187,14 +6239,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6213,16 +6265,16 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6260,19 +6312,19 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6281,10 +6333,10 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -6296,7 +6348,7 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6307,10 +6359,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6333,26 +6385,26 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -6394,7 +6446,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6403,10 +6455,10 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -6415,10 +6467,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6429,10 +6481,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6455,16 +6507,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6514,7 +6566,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6523,10 +6575,10 @@
         <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6535,10 +6587,10 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -6549,10 +6601,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6575,24 +6627,26 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>79</v>
@@ -6634,7 +6688,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6643,10 +6697,10 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6655,10 +6709,10 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6669,10 +6723,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6695,17 +6749,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6754,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6763,10 +6819,10 @@
         <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6775,10 +6831,10 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6789,10 +6845,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6815,19 +6871,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6876,7 +6932,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6885,10 +6941,10 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6897,10 +6953,10 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6911,10 +6967,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6937,19 +6993,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6998,7 +7054,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -7007,10 +7063,10 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -7019,10 +7075,10 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -7033,14 +7089,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7059,19 +7115,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -7096,13 +7152,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -7120,7 +7176,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>89</v>
@@ -7129,36 +7185,36 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7181,13 +7237,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7238,7 +7294,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7262,7 +7318,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7273,14 +7329,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7299,16 +7355,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7346,19 +7402,19 @@
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7367,10 +7423,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7382,7 +7438,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7393,10 +7449,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7419,19 +7475,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7468,17 +7524,17 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7487,10 +7543,10 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7499,10 +7555,10 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7513,13 +7569,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>79</v>
@@ -7541,19 +7597,19 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7602,7 +7658,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7611,10 +7667,10 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7623,10 +7679,10 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7637,10 +7693,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7663,13 +7719,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7720,7 +7776,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7744,7 +7800,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7755,14 +7811,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7781,16 +7837,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7828,19 +7884,19 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7849,10 +7905,10 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7864,7 +7920,7 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7875,10 +7931,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7901,26 +7957,26 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>79</v>
@@ -7962,7 +8018,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7971,10 +8027,10 @@
         <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7983,10 +8039,10 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7997,10 +8053,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8023,16 +8079,16 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8082,7 +8138,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -8091,10 +8147,10 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -8103,10 +8159,10 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -8117,10 +8173,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8143,24 +8199,26 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>79</v>
@@ -8202,7 +8260,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8211,10 +8269,10 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -8223,10 +8281,10 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -8237,10 +8295,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8263,17 +8321,19 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8322,7 +8382,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8331,10 +8391,10 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8343,10 +8403,10 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8357,10 +8417,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8383,19 +8443,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -8444,7 +8504,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8453,10 +8513,10 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8465,10 +8525,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8479,10 +8539,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8505,19 +8565,19 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8566,7 +8626,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8575,10 +8635,10 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -8587,10 +8647,10 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8601,10 +8661,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8627,19 +8687,19 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8688,7 +8748,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8697,25 +8757,25 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8723,10 +8783,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8749,16 +8809,16 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8808,7 +8868,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8817,10 +8877,10 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8829,13 +8889,13 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -8843,14 +8903,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8869,19 +8929,19 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8930,7 +8990,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8939,25 +8999,25 @@
         <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8965,14 +9025,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8991,19 +9051,19 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -9052,7 +9112,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -9061,25 +9121,25 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -9087,10 +9147,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9113,16 +9173,16 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9172,7 +9232,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9181,10 +9241,10 @@
         <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -9193,13 +9253,13 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -9207,10 +9267,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9233,17 +9293,19 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9292,7 +9354,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9301,25 +9363,25 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9327,10 +9389,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9353,19 +9415,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9402,17 +9464,17 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9421,39 +9483,39 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
@@ -9475,19 +9537,19 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9497,84 +9559,84 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9597,13 +9659,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9654,7 +9716,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9678,7 +9740,7 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9689,14 +9751,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9715,16 +9777,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9762,19 +9824,19 @@
         <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9783,10 +9845,10 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9798,7 +9860,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9809,10 +9871,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9835,19 +9897,19 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9896,7 +9958,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9905,10 +9967,10 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9917,10 +9979,10 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9931,10 +9993,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9957,23 +10019,25 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9994,13 +10058,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -10018,7 +10082,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -10027,10 +10091,10 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -10039,10 +10103,10 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -10053,10 +10117,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10079,17 +10143,19 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -10138,7 +10204,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -10147,10 +10213,10 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -10159,10 +10225,10 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10173,10 +10239,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10199,24 +10265,26 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>79</v>
@@ -10258,7 +10326,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10267,10 +10335,10 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10279,10 +10347,10 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10293,10 +10361,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10319,19 +10387,19 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10356,13 +10424,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10380,7 +10448,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10389,10 +10457,10 @@
         <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10401,10 +10469,10 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10415,10 +10483,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10441,19 +10509,19 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10478,32 +10546,32 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
@@ -10511,10 +10579,10 @@
         <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10523,10 +10591,10 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10537,10 +10605,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10563,13 +10631,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10620,7 +10688,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10644,7 +10712,7 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -10655,14 +10723,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10681,16 +10749,16 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10728,19 +10796,19 @@
         <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10752,7 +10820,7 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10764,7 +10832,7 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10775,10 +10843,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10801,19 +10869,19 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10862,7 +10930,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10874,7 +10942,7 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10883,10 +10951,10 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10897,10 +10965,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10923,13 +10991,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10980,7 +11048,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -11004,7 +11072,7 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -11015,14 +11083,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11041,16 +11109,16 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11088,19 +11156,19 @@
         <v>79</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -11112,7 +11180,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -11124,7 +11192,7 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -11135,10 +11203,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11161,19 +11229,19 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11222,7 +11290,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11234,7 +11302,7 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -11243,10 +11311,10 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11257,10 +11325,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11283,16 +11351,16 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11342,7 +11410,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11354,7 +11422,7 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -11363,10 +11431,10 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11377,10 +11445,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11403,17 +11471,17 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11462,7 +11530,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11474,7 +11542,7 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11483,10 +11551,10 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11497,10 +11565,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11523,17 +11591,17 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11582,7 +11650,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11594,7 +11662,7 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11603,10 +11671,10 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11617,10 +11685,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11643,19 +11711,19 @@
         <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11704,7 +11772,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11716,7 +11784,7 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11725,10 +11793,10 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11739,10 +11807,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11765,19 +11833,19 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11826,7 +11894,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11838,7 +11906,7 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11847,10 +11915,10 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11861,14 +11929,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11887,19 +11955,19 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11924,11 +11992,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11946,7 +12016,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11955,36 +12025,36 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12007,19 +12077,19 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -12068,7 +12138,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -12077,10 +12147,10 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -12089,10 +12159,10 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -12103,10 +12173,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12129,16 +12199,16 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12164,13 +12234,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -12188,7 +12258,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -12197,36 +12267,36 @@
         <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12249,19 +12319,19 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12286,13 +12356,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -12310,7 +12380,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12319,10 +12389,10 @@
         <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12331,10 +12401,10 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12345,10 +12415,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12371,16 +12441,16 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12430,7 +12500,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12439,36 +12509,36 @@
         <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12491,16 +12561,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12550,7 +12620,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12559,36 +12629,36 @@
         <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12611,19 +12681,19 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12672,7 +12742,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12681,10 +12751,10 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12693,10 +12763,10 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12707,10 +12777,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12733,13 +12803,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12790,7 +12860,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12814,7 +12884,7 @@
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12825,14 +12895,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12851,16 +12921,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12898,19 +12968,19 @@
         <v>79</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12919,10 +12989,10 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
@@ -12934,7 +13004,7 @@
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12945,14 +13015,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12971,19 +13041,19 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -13032,7 +13102,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -13041,10 +13111,10 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
@@ -13056,7 +13126,7 @@
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -13067,10 +13137,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13093,15 +13163,17 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -13150,7 +13222,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -13159,10 +13231,10 @@
         <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>123</v>
+        <v>596</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
@@ -13171,10 +13243,10 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -13185,10 +13257,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13211,15 +13283,17 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13268,7 +13342,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13277,10 +13351,10 @@
         <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>123</v>
+        <v>596</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -13289,10 +13363,10 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13303,10 +13377,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13329,19 +13403,19 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13366,13 +13440,13 @@
         <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>79</v>
@@ -13390,7 +13464,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -13399,22 +13473,22 @@
         <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13425,10 +13499,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13451,19 +13525,19 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13488,13 +13562,13 @@
         <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>79</v>
@@ -13512,7 +13586,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -13521,22 +13595,22 @@
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13547,10 +13621,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13573,17 +13647,19 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13632,7 +13708,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13641,10 +13717,10 @@
         <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>123</v>
+        <v>625</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
@@ -13653,10 +13729,10 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>79</v>
+        <v>626</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13667,10 +13743,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13693,15 +13769,17 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13750,7 +13828,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13759,10 +13837,10 @@
         <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13771,10 +13849,10 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13785,10 +13863,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13811,16 +13889,16 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13870,7 +13948,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13879,10 +13957,10 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
@@ -13891,10 +13969,10 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13905,10 +13983,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13931,16 +14009,16 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13990,7 +14068,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13999,10 +14077,10 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
@@ -14011,10 +14089,10 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -14025,10 +14103,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14051,19 +14129,19 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -14112,7 +14190,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -14121,10 +14199,10 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
@@ -14133,10 +14211,10 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
@@ -14147,10 +14225,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14173,13 +14251,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14230,7 +14308,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -14254,7 +14332,7 @@
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -14265,14 +14343,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14291,16 +14369,16 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14338,19 +14416,19 @@
         <v>79</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14359,10 +14437,10 @@
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>79</v>
@@ -14374,7 +14452,7 @@
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14385,14 +14463,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14411,19 +14489,19 @@
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14472,7 +14550,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14481,10 +14559,10 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -14496,7 +14574,7 @@
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14507,10 +14585,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14533,19 +14611,19 @@
         <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14570,13 +14648,13 @@
         <v>79</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>79</v>
@@ -14594,7 +14672,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>89</v>
@@ -14603,25 +14681,25 @@
         <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>79</v>
@@ -14629,10 +14707,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14655,19 +14733,19 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14692,13 +14770,13 @@
         <v>79</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>79</v>
@@ -14716,7 +14794,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14725,36 +14803,36 @@
         <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14777,19 +14855,19 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14814,13 +14892,13 @@
         <v>79</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -14838,7 +14916,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14847,10 +14925,10 @@
         <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
@@ -14859,10 +14937,10 @@
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>79</v>
@@ -14873,14 +14951,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14899,19 +14977,19 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>79</v>
@@ -14936,13 +15014,13 @@
         <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>662</v>
+        <v>524</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>79</v>
@@ -14960,7 +15038,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14969,36 +15047,36 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15024,16 +15102,16 @@
         <v>80</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>79</v>
@@ -15082,7 +15160,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -15094,7 +15172,7 @@
         <v>79</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>79</v>
@@ -15103,10 +15181,10 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>79</v>
